--- a/artfynd/A 28450-2023.xlsx
+++ b/artfynd/A 28450-2023.xlsx
@@ -15627,7 +15627,7 @@
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>111229466</v>
+        <v>111229529</v>
       </c>
       <c r="B127" t="n">
         <v>96348</v>
@@ -15675,10 +15675,10 @@
         </is>
       </c>
       <c r="Q127" t="n">
-        <v>768692.6959748334</v>
+        <v>768781.9524508875</v>
       </c>
       <c r="R127" t="n">
-        <v>7145559.40163705</v>
+        <v>7145541.533978733</v>
       </c>
       <c r="S127" t="n">
         <v>5</v>
@@ -15748,7 +15748,7 @@
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>111229316</v>
+        <v>111229176</v>
       </c>
       <c r="B128" t="n">
         <v>96348</v>
@@ -15796,10 +15796,10 @@
         </is>
       </c>
       <c r="Q128" t="n">
-        <v>768414.8777723657</v>
+        <v>768629.2564712542</v>
       </c>
       <c r="R128" t="n">
-        <v>7145533.712060272</v>
+        <v>7145591.301704139</v>
       </c>
       <c r="S128" t="n">
         <v>5</v>
@@ -15841,7 +15841,7 @@
       </c>
       <c r="AB128" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="AD128" t="b">
@@ -15869,7 +15869,7 @@
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>111229423</v>
+        <v>111229127</v>
       </c>
       <c r="B129" t="n">
         <v>96348</v>
@@ -15917,10 +15917,10 @@
         </is>
       </c>
       <c r="Q129" t="n">
-        <v>768405.0344479135</v>
+        <v>768694.4507946562</v>
       </c>
       <c r="R129" t="n">
-        <v>7145531.541543856</v>
+        <v>7145579.162236914</v>
       </c>
       <c r="S129" t="n">
         <v>5</v>
@@ -15962,7 +15962,7 @@
       </c>
       <c r="AB129" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="AD129" t="b">
@@ -15990,7 +15990,7 @@
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>111229127</v>
+        <v>111229559</v>
       </c>
       <c r="B130" t="n">
         <v>96348</v>
@@ -16038,13 +16038,13 @@
         </is>
       </c>
       <c r="Q130" t="n">
-        <v>768694.4507946562</v>
+        <v>768821.3317401714</v>
       </c>
       <c r="R130" t="n">
-        <v>7145579.162236914</v>
+        <v>7145589.870758655</v>
       </c>
       <c r="S130" t="n">
-        <v>5</v>
+        <v>100</v>
       </c>
       <c r="T130" t="inlineStr">
         <is>
@@ -16083,7 +16083,7 @@
       </c>
       <c r="AB130" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="AD130" t="b">
@@ -16111,7 +16111,7 @@
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>111229447</v>
+        <v>111229466</v>
       </c>
       <c r="B131" t="n">
         <v>96348</v>
@@ -16159,10 +16159,10 @@
         </is>
       </c>
       <c r="Q131" t="n">
-        <v>768383.8870233055</v>
+        <v>768692.6959748334</v>
       </c>
       <c r="R131" t="n">
-        <v>7145633.380871487</v>
+        <v>7145559.40163705</v>
       </c>
       <c r="S131" t="n">
         <v>5</v>
@@ -16232,7 +16232,7 @@
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>111229529</v>
+        <v>111229316</v>
       </c>
       <c r="B132" t="n">
         <v>96348</v>
@@ -16280,10 +16280,10 @@
         </is>
       </c>
       <c r="Q132" t="n">
-        <v>768781.9524508875</v>
+        <v>768414.8777723657</v>
       </c>
       <c r="R132" t="n">
-        <v>7145541.533978733</v>
+        <v>7145533.712060272</v>
       </c>
       <c r="S132" t="n">
         <v>5</v>
@@ -16353,7 +16353,7 @@
     </row>
     <row r="133">
       <c r="A133" t="n">
-        <v>111229559</v>
+        <v>111229423</v>
       </c>
       <c r="B133" t="n">
         <v>96348</v>
@@ -16401,13 +16401,13 @@
         </is>
       </c>
       <c r="Q133" t="n">
-        <v>768821.3317401714</v>
+        <v>768405.0344479135</v>
       </c>
       <c r="R133" t="n">
-        <v>7145589.870758655</v>
+        <v>7145531.541543856</v>
       </c>
       <c r="S133" t="n">
-        <v>100</v>
+        <v>5</v>
       </c>
       <c r="T133" t="inlineStr">
         <is>
@@ -16474,7 +16474,7 @@
     </row>
     <row r="134">
       <c r="A134" t="n">
-        <v>111229496</v>
+        <v>111229250</v>
       </c>
       <c r="B134" t="n">
         <v>96348</v>
@@ -16522,10 +16522,10 @@
         </is>
       </c>
       <c r="Q134" t="n">
-        <v>768736.8000452113</v>
+        <v>768446.7553321223</v>
       </c>
       <c r="R134" t="n">
-        <v>7145558.917708404</v>
+        <v>7145548.272296899</v>
       </c>
       <c r="S134" t="n">
         <v>5</v>
@@ -16567,7 +16567,7 @@
       </c>
       <c r="AB134" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="AD134" t="b">
@@ -16595,7 +16595,7 @@
     </row>
     <row r="135">
       <c r="A135" t="n">
-        <v>111229176</v>
+        <v>111229216</v>
       </c>
       <c r="B135" t="n">
         <v>96348</v>
@@ -16643,10 +16643,10 @@
         </is>
       </c>
       <c r="Q135" t="n">
-        <v>768629.2564712542</v>
+        <v>768581.4845622417</v>
       </c>
       <c r="R135" t="n">
-        <v>7145591.301704139</v>
+        <v>7145588.850944817</v>
       </c>
       <c r="S135" t="n">
         <v>5</v>
@@ -16716,7 +16716,7 @@
     </row>
     <row r="136">
       <c r="A136" t="n">
-        <v>111229250</v>
+        <v>111229447</v>
       </c>
       <c r="B136" t="n">
         <v>96348</v>
@@ -16764,10 +16764,10 @@
         </is>
       </c>
       <c r="Q136" t="n">
-        <v>768446.7553321223</v>
+        <v>768383.8870233055</v>
       </c>
       <c r="R136" t="n">
-        <v>7145548.272296899</v>
+        <v>7145633.380871487</v>
       </c>
       <c r="S136" t="n">
         <v>5</v>
@@ -16809,7 +16809,7 @@
       </c>
       <c r="AB136" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="AD136" t="b">
@@ -16837,7 +16837,7 @@
     </row>
     <row r="137">
       <c r="A137" t="n">
-        <v>111229216</v>
+        <v>111229496</v>
       </c>
       <c r="B137" t="n">
         <v>96348</v>
@@ -16885,10 +16885,10 @@
         </is>
       </c>
       <c r="Q137" t="n">
-        <v>768581.4845622417</v>
+        <v>768736.8000452113</v>
       </c>
       <c r="R137" t="n">
-        <v>7145588.850944817</v>
+        <v>7145558.917708404</v>
       </c>
       <c r="S137" t="n">
         <v>5</v>
@@ -16930,7 +16930,7 @@
       </c>
       <c r="AB137" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="AD137" t="b">

--- a/artfynd/A 28450-2023.xlsx
+++ b/artfynd/A 28450-2023.xlsx
@@ -5334,7 +5334,7 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>110863022</v>
+        <v>110862560</v>
       </c>
       <c r="B42" t="n">
         <v>96348</v>
@@ -5381,7 +5381,7 @@
         <v>7145575.190213444</v>
       </c>
       <c r="S42" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="T42" t="inlineStr">
         <is>
@@ -5410,7 +5410,7 @@
       </c>
       <c r="Z42" t="inlineStr">
         <is>
-          <t>12:12</t>
+          <t>11:53</t>
         </is>
       </c>
       <c r="AA42" t="inlineStr">
@@ -5420,7 +5420,7 @@
       </c>
       <c r="AB42" t="inlineStr">
         <is>
-          <t>12:12</t>
+          <t>11:53</t>
         </is>
       </c>
       <c r="AD42" t="b">
@@ -6012,7 +6012,7 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>110861076</v>
+        <v>110861777</v>
       </c>
       <c r="B48" t="n">
         <v>96348</v>
@@ -6059,7 +6059,7 @@
         <v>7145579.492221028</v>
       </c>
       <c r="S48" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T48" t="inlineStr">
         <is>
@@ -6088,7 +6088,7 @@
       </c>
       <c r="Z48" t="inlineStr">
         <is>
-          <t>10:57</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA48" t="inlineStr">
@@ -6098,7 +6098,7 @@
       </c>
       <c r="AB48" t="inlineStr">
         <is>
-          <t>10:57</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD48" t="b">
